--- a/medicine/Pharmacie/Classe_ATC_C02/Classe_ATC_C02.xlsx
+++ b/medicine/Pharmacie/Classe_ATC_C02/Classe_ATC_C02.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La classe ATC C02, dénommée « Antihypertenseurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux[1]. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC02[2]. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La classe ATC C02, dénommée « Antihypertenseurs », est un sous-groupe thérapeutique de la classification anatomique, thérapeutique et chimique, développée par l'OMS pour classer les médicaments et autres produits médicaux. La classe ATC vétérinaire correspondante dans la classification ATCvet est QC02. Le sous-groupe présenté ici est celui établi par l'OMS, et peut donc différer des versions dérivées utilisées dans certains pays. Il fait partie du groupe anatomique C de la classification, intitulé « Système cardio-vasculaire ».
 </t>
         </is>
       </c>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>C02AA Alcaloïdes du Rauwolfia
-C02AA01 Rescinnamine
+          <t>C02AA Alcaloïdes du Rauwolfia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C02AA01 Rescinnamine
 C02AA02 Réserpine
 C02AA03 Alcaloides du Rauwolfia en association
 C02AA04 Alcaloides du Rauwolfia, racine entière
@@ -523,12 +540,80 @@
 C02AA07 Biétaserpine
 C02AA52 Réserpine, associations
 C02AA53 Associations d'alcaloides du Rauwolfia, associations
-C02AA57 Biétaserpine, associations
-C02AB Méthyldopa
-C02AB01 Méthyldopa (lévogyre)
-C02AB02 Méthyldopa (racémique)
-C02AC Antagonistes des récepteurs de l'imidazoline
-C02AC01 Clonidine
+C02AA57 Biétaserpine, associations</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C02A Agents antiadrénergiques, agissant sur le système nerveux central</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C02AB Méthyldopa</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C02AB01 Méthyldopa (lévogyre)
+C02AB02 Méthyldopa (racémique)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C02A Agents antiadrénergiques, agissant sur le système nerveux central</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>C02AC Antagonistes des récepteurs de l'imidazoline</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C02AC01 Clonidine
 C02AC02 Guanfacine
 C02AC04 Tolonidine
 C02AC05 Moxonidine
@@ -536,74 +621,151 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>C02B Agents antiadrénergiques, bloquant les ganglions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>C02BA Dérivés du Sulfonium
-C02BA01 Trimétaphan
-C02BB Amines secondaires et tertiaires
-C02BB01 Mécamylamine
-C02BC Dérivés d'ammonium biquaternaires</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>C02BA Dérivés du Sulfonium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C02BA01 Trimétaphan</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C02B Agents antiadrénergiques, bloquant les ganglions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>C02BB Amines secondaires et tertiaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C02BB01 Mécamylamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>C02C Agents antiadrénergiques, agissant en périphérie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>C02CA Alpha-bloquants
-C02CA01 Prazosine
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>C02CA Alpha-bloquants</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C02CA01 Prazosine
 C02CA02 Indoramine
 C02CA03 Trimazosine
 C02CA04 Doxazosine
-C02CA06 Urapidil
-C02CC Dérivés de la guanidine
-C02CC01 Bétanidine
+C02CA06 Urapidil</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C02C Agents antiadrénergiques, agissant en périphérie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>C02CC Dérivés de la guanidine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C02CC01 Bétanidine
 C02CC02 Guanéthidine
 C02CC03 Guanoxan
 C02CC04 Debrisoquine
@@ -613,85 +775,367 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>C02D Agents agissant sur les muscles lisses des artérioles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C02DA Dérivés du thiazide
-C02DA01 Diazoxide
-C02DB Dérivés de l'hydrazinophtalazine
-C02DB01 Dihydralazine
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>C02DA Dérivés du thiazide</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C02DA01 Diazoxide</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C02D Agents agissant sur les muscles lisses des artérioles</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>C02DB Dérivés de l'hydrazinophtalazine</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C02DB01 Dihydralazine
 C02DB02 Hydralazine
 C02DB03 Endralazine
-C02DB04 Cadralazine
-C02DC Dérivés de la pyrimidine
-C02DC01 Minoxidil
-C02DD Dérivés du nitroferricyanure
-C02DD01 Nitroprussiate
-C02DG Dérivés de la guanidine
-C02DG01 Pinacidil
+C02DB04 Cadralazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C02D Agents agissant sur les muscles lisses des artérioles</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>C02DC Dérivés de la pyrimidine</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>C02DC01 Minoxidil</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>C02D Agents agissant sur les muscles lisses des artérioles</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>C02DD Dérivés du nitroferricyanure</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C02DD01 Nitroprussiate</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C02D Agents agissant sur les muscles lisses des artérioles</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C02DG Dérivés de la guanidine</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C02DG01 Pinacidil
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>C02K Autres antihypertenseurs</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>C02KA Alcaloïdes, autres que ceux du Rauwolfia
-C02KA01 Veratrum
-C02KB Inhibiteurs de la tyrosine hydroxylase
-C02KB01 Métirosine
-C02KC IMAO, inhibiteurs de la monoamino oxydase
-C02KC01 Pargyline
-C02KD Antagonistes de la sérotonine
-C02KD01 Kétansérine
-C02KX Antihypertenseurs pour l'hypertension artérielle pulmonaire
-C02KX01 Bosentan
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>C02KA Alcaloïdes, autres que ceux du Rauwolfia</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>C02KA01 Veratrum</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>C02K Autres antihypertenseurs</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C02KB Inhibiteurs de la tyrosine hydroxylase</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C02KB01 Métirosine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C02K Autres antihypertenseurs</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>C02KC IMAO, inhibiteurs de la monoamino oxydase</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>C02KC01 Pargyline</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>C02K Autres antihypertenseurs</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>C02KD Antagonistes de la sérotonine</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>C02KD01 Kétansérine</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>C02K Autres antihypertenseurs</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>C02KX Antihypertenseurs pour l'hypertension artérielle pulmonaire</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>C02KX01 Bosentan
 C02KX02 Ambrisentan
 C02KX03 Sitaxentan
 C02KX04 Macitentan
@@ -699,34 +1143,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
         <is>
           <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C02LA Associations d'alcaloïdes du Rauwolfia et de diurétiques
-C02LA01 Réserpine et diurétiques
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>C02LA Associations d'alcaloïdes du Rauwolfia et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>C02LA01 Réserpine et diurétiques
 C02LA02 Rescinnamine et diurétiques
 C02LA03 Déserpidine et diurétiques
 C02LA04 Méthoserpidine et diurétiques
@@ -736,59 +1185,337 @@
 C02LA50 Associations d'alcaloides du Rauwolfia et diurétiques incluant d'autres associations
 C02LA51 Réserpine et diurétiques, associations avec d'autres substances
 C02LA52 Rescinnamine et diurétiques, associations avec d'autres substances
-C02LA71 Réserpine et diurétiques, associations avec psycholeptiques
-C02LB Associations de méthyldopa et de diurétiques
-C02LB01 Méthyldopa (lévogyre) et diurétiques
-C02LC Associations d'antagonistes des récepteurs de l'imidazoline et de diurétiques
-C02LC01 Clonidine et diurétiques
+C02LA71 Réserpine et diurétiques, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>C02LB Associations de méthyldopa et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C02LB01 Méthyldopa (lévogyre) et diurétiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>C02LC Associations d'antagonistes des récepteurs de l'imidazoline et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>C02LC01 Clonidine et diurétiques
 C02LC05 Moxonidine et diurétiques
-C02LC51 Clonidine et diurétiques, associations avec d'autres substances
-C02LE Associations d'alpha-bloquants et de diurétiques
-C02LE01 Prazosine et diurétiques
-C02LF Associations de dérivés de la guanidine et de diurétiques
-C02LF01 Guanéthidine et diurétiques
-C02LG Associations de dérivés de la hydrazinophtalazine et de diurétiques
-C02LG01 Dihydralazine et diurétiques
+C02LC51 Clonidine et diurétiques, associations avec d'autres substances</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>C02LE Associations d'alpha-bloquants et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C02LE01 Prazosine et diurétiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>C02LF Associations de dérivés de la guanidine et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C02LF01 Guanéthidine et diurétiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>C02LG Associations de dérivés de la hydrazinophtalazine et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>C02LG01 Dihydralazine et diurétiques
 C02LG02 Hydralazine et diurétiques
 C02LG03 Picodralazine et diurétiques
 C02LG51 Dihydralazine et diurétiques, associations avec d'autres substances
-C02LG73 Picodralazine et diurétiques, associations avec psycholeptiques
-C02LK Associations d'alcaloïdes, autres que ceux du Rauwolfia et de diurétiques
-C02LK01 Vératrum et diurétiques
-C02LL Associations d'IMAO et de diurétiques
-C02LL01 Pargyline et diurétiques
-C02LN Associations d'antagonistes de la sérotonine et de diurétiques
-C02LX Autres antihypertenseurs et diurétiques
-C02LX01 Pinacidil et diurétiques
+C02LG73 Picodralazine et diurétiques, associations avec psycholeptiques</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>C02LK Associations d'alcaloïdes, autres que ceux du Rauwolfia et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C02LK01 Vératrum et diurétiques
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>C02LL Associations d'IMAO et de diurétiques</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C02LL01 Pargyline et diurétiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>C02L Associations d'antihypertenseurs et de diurétiques</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>C02LX Autres antihypertenseurs et diurétiques</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C02LX01 Pinacidil et diurétiques
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classe_ATC_C02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>C02N Associations d'antihypertenseurs du groupe ATC C02</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
